--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dwaine Pretorius</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>08/10/2016</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/02/2017</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/02/2017</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>30/01/2019</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1488,7 +1542,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>28/06/2019</t>
@@ -1496,7 +1549,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1692,7 +1745,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1839,7 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1861,7 +1912,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1898,7 +1949,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1935,7 +1986,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1972,7 +2023,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2009,7 +2060,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2046,7 +2097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2083,7 +2134,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2120,7 +2171,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2157,7 +2208,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2194,7 +2245,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2231,7 +2282,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2305,7 +2356,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2342,7 +2393,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2379,7 +2430,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2416,7 +2467,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2453,7 +2504,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2490,7 +2541,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2527,7 +2578,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2564,7 +2615,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2601,7 +2652,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2638,7 +2689,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2675,7 +2726,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2712,7 +2763,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4529</t>
+          <t>4529</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2749,7 +2800,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4559</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2786,7 +2837,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2823,7 +2874,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2849,6 +2900,497 @@
       <c r="G27" t="inlineStr">
         <is>
           <t>4/36</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4080</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.37%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.48%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2960,439 +2961,692 @@
           <t>3999</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4080</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.25%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.37%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12.99%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.48%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4029</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4083</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
+          <t>4080</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4224</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
+          <t>4083</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.25%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4226</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.37%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.99%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.48%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2961,6 +2960,10 @@
           <t>3999</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2973,6 +2976,10 @@
           <t>4002</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2988,6 +2995,9 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3003,6 +3013,9 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3028,6 +3041,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3103,6 +3117,9 @@
       <c r="B9" t="n">
         <v>9</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3115,6 +3132,10 @@
           <t>4247</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3130,6 +3151,9 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3175,6 +3199,9 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3187,6 +3214,10 @@
           <t>4303</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3202,6 +3233,9 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>YES</t>
@@ -3304,6 +3338,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3346,307 +3384,15 @@
           <t>4622</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3997</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4029</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4083</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4224</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4226</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4589.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>08/10/2016</t>
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/02/2017</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/02/2017</t>
@@ -953,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -1000,6 +1004,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -1047,6 +1052,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -1250,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>30/01/2019</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -1443,6 +1452,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -1542,6 +1552,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>28/06/2019</t>
@@ -1745,6 +1756,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>19/07/2022</t>
@@ -1844,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -2906,495 +2919,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3999</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4029</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4083</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4224</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.25%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4226</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.37%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4529</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>12.99%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.48%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>